--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_2_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_2_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1534700.978780726</v>
+        <v>-1353889.207254982</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14355217.64012661</v>
+        <v>12258327.79560123</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.366480916</v>
+        <v>393801.3664809166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11313311.7888576</v>
+        <v>11358433.53768689</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>93.99994808380492</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -665,10 +665,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>237.0200194352599</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>28.11631013281968</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>24.76484596498756</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>28.11631013281968</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>28.11631013281968</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>24.76484596498756</v>
+        <v>156.5886741162448</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>28.11631013281968</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>217.2413083341022</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>103.1531638478813</v>
       </c>
       <c r="V5" t="n">
-        <v>246.8240155397189</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>246.8240155397189</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
         <v>92.70937201392488</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
         <v>140.4611363452985</v>
@@ -1032,16 +1032,16 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>84.94104281508727</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.5373281552432</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1066,13 +1066,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>246.8240155397189</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>246.8240155397189</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>16.97279502168085</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>87.69031427682376</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>55.7955365092966</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1294,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>220.1180898275558</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1354,10 +1354,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>191.1898822171719</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1385,7 +1385,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1421,7 +1421,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1546,7 +1546,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>36.42827558250581</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>264.2433736030778</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>276.705718586171</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>100.2743011658319</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392217</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0464974647467</v>
+        <v>150.2345885176</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>64.22298003316328</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>375.4961235735125</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459097</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>64.22298003316328</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>227.9936246717685</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740879</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831919</v>
+        <v>198.4242454073398</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>254.7359376656024</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5952539392217</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>37.36157859846123</v>
+        <v>44.02781544003288</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5952539392217</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>37.36157859846145</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>9.919095082966518</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>64.22298003316328</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.885794462093</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>217.4850487393858</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>189.5314380831919</v>
+        <v>57.15826314818219</v>
       </c>
     </row>
     <row r="29">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>121.2482518332238</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686437</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C34" t="n">
         <v>134.5782361172335</v>
       </c>
       <c r="D34" t="n">
-        <v>126.0090037718575</v>
+        <v>126.0090037718574</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F34" t="n">
         <v>134.4685551105455</v>
@@ -3205,7 +3205,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S34" t="n">
         <v>132.7590956334168</v>
@@ -3266,10 +3266,10 @@
         <v>379.9752792759751</v>
       </c>
       <c r="C35" t="n">
-        <v>386.9571213141932</v>
+        <v>386.9571213141933</v>
       </c>
       <c r="D35" t="n">
-        <v>383.38509323421</v>
+        <v>383.3850932342101</v>
       </c>
       <c r="E35" t="n">
         <v>386.0425690809814</v>
@@ -3278,10 +3278,10 @@
         <v>385.1983386198541</v>
       </c>
       <c r="G35" t="n">
-        <v>364.6210704138062</v>
+        <v>364.6210704138063</v>
       </c>
       <c r="H35" t="n">
-        <v>259.2150933680659</v>
+        <v>259.2150933680653</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295138</v>
       </c>
       <c r="T35" t="n">
-        <v>183.0417138731735</v>
+        <v>183.0417138731736</v>
       </c>
       <c r="U35" t="n">
         <v>220.0967589369122</v>
@@ -3433,16 +3433,16 @@
         <v>128.8715224160354</v>
       </c>
       <c r="F37" t="n">
-        <v>134.4685551105455</v>
+        <v>134.4685551105456</v>
       </c>
       <c r="G37" t="n">
-        <v>128.9197986360705</v>
+        <v>128.9197986360706</v>
       </c>
       <c r="H37" t="n">
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448717</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705897</v>
       </c>
       <c r="S37" t="n">
-        <v>132.7590956334168</v>
+        <v>132.7590956334169</v>
       </c>
       <c r="T37" t="n">
         <v>205.2313529237194</v>
@@ -3481,7 +3481,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V37" t="n">
-        <v>243.2197513454117</v>
+        <v>243.2197513454118</v>
       </c>
       <c r="W37" t="n">
         <v>236.4292784165725</v>
@@ -3490,7 +3490,7 @@
         <v>204.4636562160133</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.4047392545157</v>
+        <v>188.4047392545158</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>364.6210704138062</v>
       </c>
       <c r="H38" t="n">
-        <v>259.2150933680659</v>
+        <v>259.2150933680658</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C40" t="n">
         <v>134.5782361172335</v>
@@ -3667,7 +3667,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E40" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F40" t="n">
         <v>134.4685551105455</v>
@@ -3679,7 +3679,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448715</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>183.0417138731735</v>
       </c>
       <c r="U41" t="n">
-        <v>220.0967589369122</v>
+        <v>220.0967589369123</v>
       </c>
       <c r="V41" t="n">
         <v>318.2399193523734</v>
@@ -3955,7 +3955,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V43" t="n">
-        <v>243.2197513454117</v>
+        <v>243.2197513454119</v>
       </c>
       <c r="W43" t="n">
         <v>236.4292784165725</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>747.9992279870239</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>725.1389020407281</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>705.8866852661324</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>279.90974541399</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772885</v>
+        <v>40.49558436827291</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.1969259981256</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.1969259981256</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625575</v>
+        <v>40.1969259981256</v>
       </c>
       <c r="J2" t="n">
-        <v>30.08445184211706</v>
+        <v>402.8003848150211</v>
       </c>
       <c r="K2" t="n">
-        <v>30.08445184211706</v>
+        <v>900.2373440418254</v>
       </c>
       <c r="L2" t="n">
-        <v>56.79494646829576</v>
+        <v>900.2373440418254</v>
       </c>
       <c r="M2" t="n">
-        <v>84.63009349978725</v>
+        <v>900.2373440418254</v>
       </c>
       <c r="N2" t="n">
-        <v>84.63009349978725</v>
+        <v>900.2373440418254</v>
       </c>
       <c r="O2" t="n">
-        <v>84.63009349978725</v>
+        <v>938.7675262933901</v>
       </c>
       <c r="P2" t="n">
-        <v>84.63009349978725</v>
+        <v>1436.204485520194</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.63009349978725</v>
+        <v>1892.289965024377</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.84629990628</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.84629990628</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.84629990628</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.84629990628</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1652.356885032529</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1255.965535332876</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>1248.285940541027</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>842.9486704959178</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.0649272658043</v>
+        <v>607.3204170295809</v>
       </c>
       <c r="C3" t="n">
-        <v>55.66461400032987</v>
+        <v>489.8145135470857</v>
       </c>
       <c r="D3" t="n">
-        <v>55.66461400032987</v>
+        <v>385.9745550623707</v>
       </c>
       <c r="E3" t="n">
-        <v>55.66461400032987</v>
+        <v>281.2726213353079</v>
       </c>
       <c r="F3" t="n">
-        <v>30.6496180761</v>
+        <v>187.626791018212</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>93.57301923581602</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>40.1969259981256</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>47.64356896003744</v>
       </c>
       <c r="J3" t="n">
-        <v>30.08445184211706</v>
+        <v>319.3410582396285</v>
       </c>
       <c r="K3" t="n">
-        <v>30.08445184211706</v>
+        <v>816.7780174664329</v>
       </c>
       <c r="L3" t="n">
-        <v>30.08445184211706</v>
+        <v>1302.719769631153</v>
       </c>
       <c r="M3" t="n">
-        <v>56.79494646829576</v>
+        <v>1302.719769631153</v>
       </c>
       <c r="N3" t="n">
-        <v>84.63009349978725</v>
+        <v>1302.719769631153</v>
       </c>
       <c r="O3" t="n">
-        <v>84.63009349978725</v>
+        <v>1302.719769631153</v>
       </c>
       <c r="P3" t="n">
-        <v>84.63009349978725</v>
+        <v>1302.719769631153</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>1766.865246493932</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1848.884556578636</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1767.56030913989</v>
       </c>
       <c r="T3" t="n">
-        <v>84.0649272658043</v>
+        <v>1625.680373437568</v>
       </c>
       <c r="U3" t="n">
-        <v>84.0649272658043</v>
+        <v>1440.912177357205</v>
       </c>
       <c r="V3" t="n">
-        <v>84.0649272658043</v>
+        <v>1235.939038496471</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>1039.417661329688</v>
       </c>
       <c r="X3" t="n">
-        <v>84.0649272658043</v>
+        <v>875.9403150963512</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.0649272658043</v>
+        <v>736.2474264496436</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.26430073485544</v>
+        <v>514.0253466106076</v>
       </c>
       <c r="C4" t="n">
-        <v>27.26430073485544</v>
+        <v>514.0253466106076</v>
       </c>
       <c r="D4" t="n">
-        <v>27.26430073485544</v>
+        <v>514.0253466106076</v>
       </c>
       <c r="E4" t="n">
-        <v>27.26430073485544</v>
+        <v>514.0253466106076</v>
       </c>
       <c r="F4" t="n">
-        <v>27.26430073485544</v>
+        <v>342.163572385168</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>183.9931944899712</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>40.1969259981256</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>40.1969259981256</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>40.1969259981256</v>
       </c>
       <c r="K4" t="n">
-        <v>2.249304810625575</v>
+        <v>266.7245272039628</v>
       </c>
       <c r="L4" t="n">
-        <v>2.249304810625575</v>
+        <v>621.4138484983836</v>
       </c>
       <c r="M4" t="n">
-        <v>28.95979943680427</v>
+        <v>1012.599643468634</v>
       </c>
       <c r="N4" t="n">
-        <v>56.79494646829576</v>
+        <v>1390.09115434467</v>
       </c>
       <c r="O4" t="n">
-        <v>56.79494646829576</v>
+        <v>1745.519283024433</v>
       </c>
       <c r="P4" t="n">
-        <v>84.63009349978725</v>
+        <v>1882.846169665518</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2009.84629990628</v>
       </c>
       <c r="R4" t="n">
-        <v>84.0649272658043</v>
+        <v>2009.84629990628</v>
       </c>
       <c r="S4" t="n">
-        <v>55.66461400032987</v>
+        <v>2009.84629990628</v>
       </c>
       <c r="T4" t="n">
-        <v>55.66461400032987</v>
+        <v>2009.84629990628</v>
       </c>
       <c r="U4" t="n">
-        <v>27.26430073485544</v>
+        <v>1729.661851406584</v>
       </c>
       <c r="V4" t="n">
-        <v>27.26430073485544</v>
+        <v>1447.950384014613</v>
       </c>
       <c r="W4" t="n">
-        <v>27.26430073485544</v>
+        <v>1173.097980187126</v>
       </c>
       <c r="X4" t="n">
-        <v>27.26430073485544</v>
+        <v>930.5340836329311</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.26430073485544</v>
+        <v>704.1913153226732</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>359.5099721566208</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>336.649646210325</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>317.3974294357294</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E5" t="n">
-        <v>295.460893623991</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>274.3771158537953</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>274.0784574836479</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>54.6427924997063</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>19.74592124317751</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>264.1016966274992</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>264.1016966274992</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>264.1016966274992</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>264.1016966274992</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="N5" t="n">
-        <v>264.1016966274992</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O5" t="n">
-        <v>381.0281765083296</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>625.3839518926513</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>869.7397272769731</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>987.2960621588757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>882.928768032016</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>882.928768032016</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>882.928768032016</v>
+        <v>2120.716137464517</v>
       </c>
       <c r="V5" t="n">
-        <v>633.6115806181585</v>
+        <v>1763.226722590766</v>
       </c>
       <c r="W5" t="n">
-        <v>384.2943932043011</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="X5" t="n">
-        <v>376.6147984124524</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y5" t="n">
-        <v>375.3179324077468</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>378.327520062855</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>260.8216165803598</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>260.8216165803598</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>260.8216165803598</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>167.1757862632639</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>73.12201448086793</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>19.74592124317751</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>27.19256420508935</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>271.5483395894111</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>515.9041149737328</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>515.9041149737328</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M6" t="n">
-        <v>515.9041149737328</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N6" t="n">
-        <v>660.9209766898508</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>660.9209766898508</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>660.9209766898508</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>905.2767520741726</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>987.2960621588757</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>987.2960621588757</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>845.4161264565539</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>660.6479303761906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>574.8488972296378</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>378.327520062855</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>378.327520062855</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>378.327520062855</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>357.8159013157635</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>357.8159013157635</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>357.8159013157635</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>191.6076954686171</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>19.74592124317751</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>19.74592124317751</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>19.74592124317751</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>19.74592124317751</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>19.74592124317751</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>19.74592124317751</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>19.74592124317751</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>264.1016966274992</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>498.5845113902321</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>742.9402867745539</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>987.2960621588757</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>987.2960621588757</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>987.2960621588757</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>987.2960621588757</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>987.2960621588757</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>737.9788747450182</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V7" t="n">
-        <v>488.6616873311607</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W7" t="n">
-        <v>488.6616873311607</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X7" t="n">
-        <v>488.6616873311607</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="Y7" t="n">
-        <v>488.6616873311607</v>
+        <v>1127.679347573484</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1369.361590511541</v>
+        <v>831.8385222885897</v>
       </c>
       <c r="C8" t="n">
-        <v>1346.501264565245</v>
+        <v>808.9781963422939</v>
       </c>
       <c r="D8" t="n">
-        <v>923.2086437502451</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>901.2721079385067</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>476.1479261279069</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1313.087264683184</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1769.873171385915</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1769.873171385915</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1657.054697076327</v>
       </c>
       <c r="W8" t="n">
-        <v>1449.208273341684</v>
+        <v>1260.663347376674</v>
       </c>
       <c r="X8" t="n">
-        <v>1441.528678549835</v>
+        <v>848.9433485444214</v>
       </c>
       <c r="Y8" t="n">
-        <v>1385.169550762667</v>
+        <v>847.6464825397157</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>493.6978991635576</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>950.4838058662885</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>950.4838058662885</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>950.4838058662885</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>950.4838058662885</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1407.269712569019</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>876.528278233494</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C10" t="n">
-        <v>704.55571511241</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D10" t="n">
-        <v>541.2389422391807</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>375.0307363920342</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>203.1689621665946</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1799.725677711293</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>1623.258118165018</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V10" t="n">
-        <v>1341.546650773047</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W10" t="n">
-        <v>1066.69424694556</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X10" t="n">
-        <v>1066.69424694556</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y10" t="n">
-        <v>1066.69424694556</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1993.694838080546</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>1800.573744931888</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1377.281124116888</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>951.3041842647458</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>526.180002454146</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>121.8409400435946</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>121.8409400435946</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I11" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>802.4523767625649</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>1732.077424381841</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.694030540366</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N11" t="n">
-        <v>2337.694030540366</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O11" t="n">
-        <v>3182.838680691179</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P11" t="n">
-        <v>3891.117959849106</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q11" t="n">
-        <v>4347.203439353289</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>4347.203439353289</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>4242.83614522643</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>4242.83614522643</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3984.481235822842</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3626.991820949092</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3230.600471249439</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2818.880472417186</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2413.543202372076</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>654.067559818521</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>536.5616563360257</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>432.7216978513108</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>328.019764124248</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>234.3739338071522</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>140.3201620247562</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>94.39071174897762</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>147.1946114745937</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>737.6795380429332</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L12" t="n">
-        <v>737.6795380429332</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M12" t="n">
-        <v>737.6795380429332</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N12" t="n">
-        <v>1813.612389282872</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O12" t="n">
-        <v>1813.612389282872</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1813.612389282872</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1813.612389282872</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1814.30745192883</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1672.427516226508</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1487.659320146145</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1282.686181285411</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1086.164804118628</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>922.6874578852913</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>782.9945692385837</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1107.152861013705</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C13" t="n">
-        <v>935.1802978926213</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D13" t="n">
-        <v>771.863525019392</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E13" t="n">
-        <v>605.6553191722455</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F13" t="n">
-        <v>433.7935449468059</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G13" t="n">
-        <v>267.536575241038</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>123.7403067491923</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>144.4353970112238</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>370.962998217061</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>725.6523195114818</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1116.838114481733</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1494.329625357768</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1849.757754037531</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2140.356965959432</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2267.357096200194</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2267.357096200194</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2097.222048719329</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1853.882700945229</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U13" t="n">
-        <v>1853.882700945229</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V13" t="n">
-        <v>1572.171233553258</v>
+        <v>1518.445132936602</v>
       </c>
       <c r="W13" t="n">
-        <v>1297.318829725771</v>
+        <v>1518.445132936602</v>
       </c>
       <c r="X13" t="n">
-        <v>1297.318829725771</v>
+        <v>1275.881236382407</v>
       </c>
       <c r="Y13" t="n">
-        <v>1297.318829725771</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2281.064754648851</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1889.06089591868</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1500.665146360209</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1109.585077764596</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>719.3577672105248</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9155760565021</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>86.94406878706579</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>449.5475276039613</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1165.05583557946</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1165.05583557946</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2169.341936998519</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>2220.137695658464</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3065.282345809276</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3773.561624967204</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>4229.647104471387</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>4347.203439353289</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>4277.733016482958</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4277.733016482958</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>4054.2749783359</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3774.774252491281</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3413.279774048157</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3036.456646472433</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2666.016247683852</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>654.067559818521</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>536.5616563360257</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>432.7216978513108</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>328.019764124248</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>234.3739338071522</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>140.3201620247562</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>94.39071174897762</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>366.0882010285687</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>956.5731275969083</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1097.414672244374</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1813.612389282872</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1813.612389282872</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1814.30745192883</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1672.427516226508</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1487.659320146145</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1282.686181285411</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1086.164804118628</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>922.6874578852913</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>782.9945692385837</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>898.7143637936801</v>
+        <v>832.9089957654489</v>
       </c>
       <c r="C16" t="n">
-        <v>761.6386719291252</v>
+        <v>660.9364326443649</v>
       </c>
       <c r="D16" t="n">
-        <v>660.3514990343455</v>
+        <v>497.6196597711356</v>
       </c>
       <c r="E16" t="n">
-        <v>529.0401644437278</v>
+        <v>497.6196597711356</v>
       </c>
       <c r="F16" t="n">
-        <v>392.0752614748169</v>
+        <v>497.6196597711356</v>
       </c>
       <c r="G16" t="n">
-        <v>260.7151630255778</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>151.815765790261</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>178.6378205297476</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>439.3678452541087</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>828.2595900670533</v>
+        <v>741.0109641302474</v>
       </c>
       <c r="M16" t="n">
-        <v>1253.647808555828</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.341742950388</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O16" t="n">
-        <v>2054.972295148675</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P16" t="n">
-        <v>2379.7739305891</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q16" t="n">
-        <v>2540.976484348385</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R16" t="n">
-        <v>2528.834742292087</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S16" t="n">
-        <v>2393.596566067751</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T16" t="n">
-        <v>2185.15408955018</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U16" t="n">
-        <v>1939.866512307013</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="V16" t="n">
-        <v>1693.051916171571</v>
+        <v>1540.491264859196</v>
       </c>
       <c r="W16" t="n">
-        <v>1453.096383600612</v>
+        <v>1265.638861031709</v>
       </c>
       <c r="X16" t="n">
-        <v>1245.429358302946</v>
+        <v>1023.074964477515</v>
       </c>
       <c r="Y16" t="n">
-        <v>1053.983461249217</v>
+        <v>1023.074964477515</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2281.064754648851</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>1889.06089591868</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1500.66514636021</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1109.585077764596</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>719.3577672105248</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>349.9155760565021</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>86.94406878706579</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>449.5475276039613</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>449.5475276039613</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1202.301520785419</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.587622204478</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>3182.838680691179</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3182.838680691179</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>3891.117959849106</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4347.203439353289</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>4347.203439353289</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>4277.733016482958</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4091.70431678412</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>4091.70431678412</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.111773166898</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3407.617294723774</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3030.794167148049</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2660.353768359469</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>654.067559818521</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>536.5616563360257</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>432.7216978513108</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>328.019764124248</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>234.3739338071522</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3201620247562</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>86.94406878706579</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>358.6415580666569</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>949.1264846349965</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>949.1264846349965</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>949.1264846349965</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>949.1264846349965</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1349.466912420093</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1349.466912420093</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1813.612389282872</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1814.30745192883</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1672.427516226508</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1487.659320146145</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1282.686181285411</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1086.164804118628</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>922.6874578852913</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>782.9945692385837</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>925.847092515601</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="C19" t="n">
-        <v>788.7714006510458</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D19" t="n">
-        <v>660.3514990343454</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E19" t="n">
-        <v>529.0401644437277</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F19" t="n">
-        <v>392.0752614748169</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
-        <v>260.7151630255778</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>151.815765790261</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>178.6378205297477</v>
+        <v>159.7940416299896</v>
       </c>
       <c r="K19" t="n">
-        <v>439.3678452541087</v>
+        <v>386.3216428358268</v>
       </c>
       <c r="L19" t="n">
-        <v>828.2595900670533</v>
+        <v>741.0109641302475</v>
       </c>
       <c r="M19" t="n">
-        <v>1253.647808555828</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.341742950387</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O19" t="n">
-        <v>2054.972295148674</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P19" t="n">
-        <v>2379.773930589099</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q19" t="n">
-        <v>2540.976484348385</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2540.976484348385</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S19" t="n">
-        <v>2405.738308124049</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.295831606478</v>
+        <v>1869.241345563995</v>
       </c>
       <c r="U19" t="n">
-        <v>1966.999241028934</v>
+        <v>1589.056897064299</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.184644893491</v>
+        <v>1589.056897064299</v>
       </c>
       <c r="W19" t="n">
-        <v>1480.229112322533</v>
+        <v>1314.204493236812</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.562087024867</v>
+        <v>1071.640596682617</v>
       </c>
       <c r="Y19" t="n">
-        <v>1081.116189971138</v>
+        <v>871.2120659681327</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2275.402275324469</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>1883.398416594297</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1495.002667035827</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1103.922598440213</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>713.695287886142</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>344.2530967321187</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H20" t="n">
-        <v>86.94406878706579</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I20" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>86.94406878706579</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>86.94406878706579</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1016.569116406342</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M20" t="n">
-        <v>2020.855217825401</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>2997.106276312102</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3842.250926462914</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>3842.250926462914</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4298.336405967097</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>4347.203439353289</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>4277.733016482958</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4091.70431678412</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
-        <v>4091.70431678412</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.111773166898</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3407.617294723774</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3030.79416714805</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2660.35376835947</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>654.067559818521</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>536.5616563360257</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>432.7216978513108</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>328.019764124248</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>234.3739338071522</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>140.3201620247562</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>94.39071174897762</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>94.39071174897762</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>684.8756383173172</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>684.8756383173172</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>684.8756383173172</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>684.8756383173172</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>684.8756383173172</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1349.466912420093</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1813.612389282872</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1814.30745192883</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1672.427516226508</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1487.659320146145</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1282.686181285411</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1086.164804118628</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>922.6874578852913</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>782.9945692385837</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>898.7143637936804</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="C22" t="n">
-        <v>761.6386719291252</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="D22" t="n">
-        <v>633.2187703124246</v>
+        <v>312.9834601014931</v>
       </c>
       <c r="E22" t="n">
-        <v>501.9074357218069</v>
+        <v>146.7752542543466</v>
       </c>
       <c r="F22" t="n">
-        <v>364.9425327528959</v>
+        <v>146.7752542543466</v>
       </c>
       <c r="G22" t="n">
-        <v>233.5824343036568</v>
+        <v>146.7752542543466</v>
       </c>
       <c r="H22" t="n">
-        <v>124.6830370683399</v>
+        <v>146.7752542543466</v>
       </c>
       <c r="I22" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>178.6378205297477</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>439.3678452541087</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>828.2595900670533</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1253.647808555828</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.341742950387</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2054.972295148675</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2379.7739305891</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2540.976484348386</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2528.834742292088</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2393.596566067752</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2185.15408955018</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1939.866512307013</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1693.051916171571</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1453.096383600613</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X22" t="n">
-        <v>1245.429358302946</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y22" t="n">
-        <v>1053.983461249217</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.61999771505438</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1169.731764507449</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>2099.356812126726</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3103.642913545784</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3103.642913545784</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3299.078792208706</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4007.358071366633</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4463.443550870817</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.999885752719</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882388</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.50076318355</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036491</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>99.06664067696622</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>370.7641299565573</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>961.2490565248969</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>961.2490565248969</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>961.2490565248969</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>961.2490565248969</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>961.2490565248969</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1354.142841348082</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1818.288318210861</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.3902927216685</v>
+        <v>606.7404520798269</v>
       </c>
       <c r="C25" t="n">
-        <v>766.3146008571134</v>
+        <v>434.7678889587429</v>
       </c>
       <c r="D25" t="n">
-        <v>637.8946992404129</v>
+        <v>434.7678889587429</v>
       </c>
       <c r="E25" t="n">
-        <v>506.5833646497953</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F25" t="n">
-        <v>369.6184616808845</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>238.2583632316454</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>129.3589659963286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577362</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820972</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9355189950418</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483816</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517087</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276373</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2533.510671220075</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2398.272494995739</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2189.830018478168</v>
+        <v>2102.561405375499</v>
       </c>
       <c r="U25" t="n">
-        <v>1944.542441235001</v>
+        <v>1822.376956875803</v>
       </c>
       <c r="V25" t="n">
-        <v>1697.727845099558</v>
+        <v>1540.665489483832</v>
       </c>
       <c r="W25" t="n">
-        <v>1457.7723125286</v>
+        <v>1265.813085656345</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.105287230934</v>
+        <v>1023.24918910215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.659390177205</v>
+        <v>796.9064207918925</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>354.5915049844907</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>91.61999771505438</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>91.61999771505438</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>91.61999771505438</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1021.245045334331</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
-        <v>2025.531146753389</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N26" t="n">
-        <v>3001.78220524009</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O26" t="n">
-        <v>3846.926855390902</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4007.358071366633</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>4463.443550870817</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>4580.999885752719</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>4511.529462882388</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4325.50076318355</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
-        <v>4102.042725036491</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>91.61999771505438</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>91.61999771505438</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>91.61999771505438</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>91.61999771505438</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>91.61999771505438</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>91.61999771505438</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>637.9451243095837</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1354.142841348082</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1818.288318210861</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>930.5230214435898</v>
+        <v>712.1625887178441</v>
       </c>
       <c r="C28" t="n">
-        <v>793.4473295790344</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="D28" t="n">
-        <v>665.0274279623339</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E28" t="n">
-        <v>533.7160933717163</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F28" t="n">
-        <v>396.7511904028055</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G28" t="n">
-        <v>265.3910919535664</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H28" t="n">
-        <v>156.4916947182496</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
-        <v>91.61999771505438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>444.0437741820974</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>832.935518995042</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2533.510671220076</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2398.27249499574</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>2189.830018478168</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1944.542441235001</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1724.86057382148</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1484.905041250522</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.238015952856</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>1085.792118899127</v>
+        <v>902.3285574299098</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1983.783825177543</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2988.069926596601</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6643,28 +6643,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220167</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181376</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210688</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815417</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1169.406598900327</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L32" t="n">
-        <v>2099.031646519604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M32" t="n">
-        <v>3103.317747938662</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3719.596955245831</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4564.741605396644</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4564.741605396644</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4564.741605396644</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151237</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077324</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555191</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630243</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>98.74147506984471</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>370.4389643494358</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1353.81767574096</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1817.963152603739</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619905</v>
+        <v>933.2391797598862</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223607</v>
+        <v>797.3015675202564</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305856</v>
+        <v>670.0197455284813</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648933</v>
+        <v>539.846490562789</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209079</v>
+        <v>404.0196672188036</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965942</v>
+        <v>273.7976483944898</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862027</v>
+        <v>166.0363307840984</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910042</v>
+        <v>195.1118969888998</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557547</v>
+        <v>456.9573535536503</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090889</v>
+        <v>846.9645302069841</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238253</v>
+        <v>1273.468180536148</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473202</v>
+        <v>1686.277546771097</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>2077.023530809774</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2402.940598090588</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2565.258583690263</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960994</v>
+        <v>2554.25492125889</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361583</v>
+        <v>2420.154824659479</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>2212.850427766833</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1968.700930148592</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.016532340179</v>
+        <v>1723.024413638075</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394147</v>
+        <v>1484.206960692042</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721406</v>
+        <v>1277.678015019301</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>1087.370197590498</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6917,22 @@
         <v>1887.72126111492</v>
       </c>
       <c r="D35" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E35" t="n">
         <v>1110.521602210686</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815408</v>
+        <v>721.4323712815406</v>
       </c>
       <c r="G35" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524433</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J35" t="n">
         <v>453.8982909248284</v>
@@ -6941,43 +6941,43 @@
         <v>1169.406598900327</v>
       </c>
       <c r="L35" t="n">
-        <v>1169.406598900327</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M35" t="n">
-        <v>1578.981138097019</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N35" t="n">
         <v>2555.23219658372</v>
       </c>
       <c r="O35" t="n">
-        <v>3400.376846734532</v>
+        <v>3400.376846734533</v>
       </c>
       <c r="P35" t="n">
-        <v>4108.656125892459</v>
+        <v>4108.65612589246</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U35" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562894</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744695</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X35" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y35" t="n">
         <v>2662.400453630242</v>
@@ -7008,10 +7008,10 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I36" t="n">
-        <v>98.74147506984468</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J36" t="n">
         <v>370.4389643494358</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619906</v>
       </c>
       <c r="C37" t="n">
         <v>786.2936862223607</v>
@@ -7081,25 +7081,25 @@
         <v>528.8386092648933</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209078</v>
+        <v>393.011785920908</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H37" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862028</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J37" t="n">
-        <v>184.1040156910042</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K37" t="n">
         <v>445.9494722557547</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090889</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M37" t="n">
         <v>1262.460299238253</v>
@@ -7117,7 +7117,7 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R37" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S37" t="n">
         <v>2409.146943361583</v>
@@ -7157,19 +7157,19 @@
         <v>1500.463591181375</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815408</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G38" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524438</v>
       </c>
       <c r="H38" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I38" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J38" t="n">
         <v>453.8982909248284</v>
@@ -7181,31 +7181,31 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M38" t="n">
-        <v>3103.317747938662</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="N38" t="n">
-        <v>3282.820511852629</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O38" t="n">
-        <v>3282.820511852629</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P38" t="n">
-        <v>3991.099791010557</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q38" t="n">
-        <v>4447.18527051474</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R38" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S38" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T38" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U38" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V38" t="n">
         <v>3767.744219562895</v>
@@ -7214,7 +7214,7 @@
         <v>3407.387820744696</v>
       </c>
       <c r="X38" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y38" t="n">
         <v>2662.400453630242</v>
@@ -7245,10 +7245,10 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I39" t="n">
-        <v>98.74147506984468</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J39" t="n">
         <v>370.4389643494358</v>
@@ -7309,25 +7309,25 @@
         <v>922.2312984619905</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223606</v>
+        <v>786.2936862223607</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305855</v>
+        <v>659.0118642305856</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648933</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G40" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H40" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I40" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J40" t="n">
         <v>184.1040156910041</v>
@@ -7336,7 +7336,7 @@
         <v>445.9494722557545</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090882</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238252</v>
@@ -7345,7 +7345,7 @@
         <v>1675.269665473201</v>
       </c>
       <c r="O40" t="n">
-        <v>2066.015649511878</v>
+        <v>2066.015649511877</v>
       </c>
       <c r="P40" t="n">
         <v>2391.932716792692</v>
@@ -7397,7 +7397,7 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F41" t="n">
-        <v>721.432371281541</v>
+        <v>721.4323712815411</v>
       </c>
       <c r="G41" t="n">
         <v>353.1282597524439</v>
@@ -7409,28 +7409,28 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J41" t="n">
-        <v>91.29483210793288</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K41" t="n">
-        <v>806.8031400834319</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L41" t="n">
-        <v>1736.428187702709</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M41" t="n">
-        <v>2740.714289121767</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="N41" t="n">
-        <v>3011.317676087904</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O41" t="n">
-        <v>3856.462326238716</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P41" t="n">
-        <v>4564.741605396644</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q41" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R41" t="n">
         <v>4564.741605396644</v>
@@ -7439,16 +7439,16 @@
         <v>4496.409262151238</v>
       </c>
       <c r="T41" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U41" t="n">
-        <v>4089.198683555193</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W41" t="n">
-        <v>3407.387820744697</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X41" t="n">
         <v>3031.702772793898</v>
@@ -7576,7 +7576,7 @@
         <v>835.9566489090885</v>
       </c>
       <c r="M43" t="n">
-        <v>1262.460299238253</v>
+        <v>1262.460299238252</v>
       </c>
       <c r="N43" t="n">
         <v>1675.269665473201</v>
@@ -7591,25 +7591,25 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R43" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S43" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T43" t="n">
         <v>2201.842546468938</v>
       </c>
       <c r="U43" t="n">
-        <v>1957.693048850697</v>
+        <v>1957.693048850696</v>
       </c>
       <c r="V43" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W43" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X43" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y43" t="n">
         <v>1076.362316292602</v>
@@ -7625,7 +7625,7 @@
         <v>2278.587040220166</v>
       </c>
       <c r="C44" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D44" t="n">
         <v>1500.463591181375</v>
@@ -7640,10 +7640,10 @@
         <v>353.1282597524439</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J44" t="n">
         <v>453.8982909248284</v>
@@ -7655,34 +7655,34 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M44" t="n">
-        <v>3103.317747938662</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="N44" t="n">
-        <v>3991.099791010559</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O44" t="n">
-        <v>3991.099791010559</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P44" t="n">
-        <v>3991.099791010559</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q44" t="n">
-        <v>4447.185270514742</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R44" t="n">
         <v>4564.741605396644</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.409262151239</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U44" t="n">
         <v>4089.198683555192</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W44" t="n">
         <v>3407.387820744696</v>
@@ -7719,28 +7719,28 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I45" t="n">
-        <v>98.74147506984472</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J45" t="n">
         <v>370.4389643494358</v>
       </c>
       <c r="K45" t="n">
-        <v>960.9238909177755</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="L45" t="n">
-        <v>960.9238909177755</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="M45" t="n">
-        <v>960.9238909177755</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="N45" t="n">
-        <v>960.9238909177755</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="O45" t="n">
-        <v>960.9238909177755</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="P45" t="n">
         <v>1353.81767574096</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H46" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J46" t="n">
         <v>184.1040156910042</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557546</v>
+        <v>445.9494722557547</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090886</v>
+        <v>835.9566489090888</v>
       </c>
       <c r="M46" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N46" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O46" t="n">
         <v>2066.015649511878</v>
@@ -7828,10 +7828,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R46" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S46" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T46" t="n">
         <v>2201.842546468938</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53626961840621</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>538.2261757713793</v>
       </c>
       <c r="L2" t="n">
-        <v>65.29234003482364</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>65.54757303225151</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>76.31033536770565</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>540.0369367868013</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>63.14896002761616</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,22 +8052,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>48.72742446615302</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>524.8608088099033</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>513.3653414260681</v>
       </c>
       <c r="M3" t="n">
-        <v>50.07707811452869</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>49.45933834636135</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8076,10 +8076,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>49.55573749368652</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>50.49711079080617</v>
+        <v>161.0948275681731</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.73587289760464</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>276.2439750253054</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
@@ -8222,19 +8222,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>155.4985147912063</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>284.3993773499502</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>282.948690144317</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8292,28 +8292,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>267.4351298730522</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>269.2232493730522</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>372.2051051843581</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>167.824706714671</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>269.5710538286974</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>269.3994554312047</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>257.6002290187649</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>269.3232030381434</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>269.2048161977054</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
@@ -8465,16 +8465,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>111.5240152033034</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,16 +8526,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8547,10 +8547,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q9" t="n">
-        <v>465.5045236145516</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8626,10 +8626,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,19 +8696,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>649.1652085141035</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8766,19 +8766,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>73.94838678345056</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>693.8194039897608</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1108.143888051864</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8787,7 +8787,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8930,13 +8930,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>88.58846996570408</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -9018,13 +9018,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>165.4360762348141</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9164,19 +9164,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>798.6696113027826</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>848.7638096822445</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9185,7 +9185,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
@@ -9255,10 +9255,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>427.5561602122187</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,13 +9416,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>84.39328967882962</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>618.848654609434</v>
@@ -9495,7 +9495,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>693.0751584803597</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
@@ -9644,13 +9644,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
-        <v>234.8009378034199</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9887,10 +9887,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P26" t="n">
-        <v>199.6270951190505</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9948,34 +9948,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>849.7962292804204</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>848.7638096822445</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10349,7 +10349,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>630.9692526488932</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10358,19 +10358,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>659.7838726396674</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>418.6332501171365</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>451.1429186536653</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>498.0882592628462</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10829,13 +10829,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>379.4961267198499</v>
       </c>
       <c r="N38" t="n">
-        <v>218.5955459798674</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11066,10 +11066,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>379.4961267198499</v>
       </c>
       <c r="N41" t="n">
-        <v>310.6163773456954</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11078,10 +11078,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,16 +11303,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>379.4961267198499</v>
       </c>
       <c r="N44" t="n">
-        <v>934.0291612909073</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11391,7 +11391,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>418.6332501171364</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>183.8529205572338</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>231.441840469661</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.34260699462097</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>14.65097911497355</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>184.1684127018497</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>42.66089959487852</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>26.86140143470159</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>14.35981149111018</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.605854531138677</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>14.8410767989667</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>25.65509521981562</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.605854531139634</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>221.2234577655883</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>26.86140143470209</v>
+        <v>54.7430671370939</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>26.86140143470183</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.9868592133925</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>26.86140143470202</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>166.9210774789732</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24847,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.89490464996138</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24856,7 +24856,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>71.98949189919212</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>978367.7237476256</v>
+        <v>967220.9019334812</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>984689.4810182558</v>
+        <v>992836.7953921407</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>990891.8079622488</v>
+        <v>992836.7953921407</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>867670.4242977984</v>
+        <v>970033.1520511922</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>969875.2173163968</v>
+        <v>970033.1520511922</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>969875.2173163969</v>
+        <v>970033.1520511926</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>969875.2173163969</v>
+        <v>970033.1520511925</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1001039.480292128</v>
+        <v>970033.1520511922</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1001039.480292128</v>
+        <v>970033.1520511922</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1002055.254289701</v>
+        <v>1004223.695714666</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43683.20010083724</v>
+        <v>42585.59816511054</v>
       </c>
       <c r="C2" t="n">
-        <v>43683.20010083724</v>
+        <v>43683.20010083722</v>
       </c>
       <c r="D2" t="n">
-        <v>43683.20010083722</v>
+        <v>43683.20010083721</v>
       </c>
       <c r="E2" t="n">
-        <v>37704.34456808516</v>
+        <v>42152.28023530857</v>
       </c>
       <c r="F2" t="n">
-        <v>42280.67858384329</v>
+        <v>42152.28023530855</v>
       </c>
       <c r="G2" t="n">
-        <v>42280.67858384329</v>
+        <v>42152.28023530856</v>
       </c>
       <c r="H2" t="n">
-        <v>42280.6785838433</v>
+        <v>42152.28023530856</v>
       </c>
       <c r="I2" t="n">
-        <v>43634.84957825475</v>
+        <v>42152.28023530854</v>
       </c>
       <c r="J2" t="n">
-        <v>43634.84957825476</v>
+        <v>42152.28023530856</v>
       </c>
       <c r="K2" t="n">
         <v>42152.28023530854</v>
       </c>
       <c r="L2" t="n">
-        <v>43683.20010083722</v>
+        <v>43683.20010083717</v>
       </c>
       <c r="M2" t="n">
-        <v>43683.20010083722</v>
+        <v>43683.20010083724</v>
       </c>
       <c r="N2" t="n">
-        <v>43683.20010083718</v>
+        <v>43683.20010083725</v>
       </c>
       <c r="O2" t="n">
         <v>43683.20010083722</v>
       </c>
       <c r="P2" t="n">
-        <v>43683.20010083718</v>
+        <v>43683.20010083722</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>168386.4303908731</v>
       </c>
       <c r="C3" t="n">
-        <v>70658.04841929284</v>
+        <v>17370.2954392139</v>
       </c>
       <c r="D3" t="n">
-        <v>66653.70877922972</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>186730.9660666976</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
-        <v>27638.3220351708</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15542.84620574567</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7356.463848391494</v>
+        <v>131466.0563231697</v>
       </c>
       <c r="K3" t="n">
-        <v>90655.72937395234</v>
+        <v>13837.70917736437</v>
       </c>
       <c r="L3" t="n">
-        <v>48021.96166036608</v>
+        <v>28539.68109811172</v>
       </c>
       <c r="M3" t="n">
-        <v>155852.4193600509</v>
+        <v>145773.7708181577</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>303732.4552423392</v>
+        <v>159602.344916723</v>
       </c>
       <c r="C4" t="n">
-        <v>239514.9308970034</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="D4" t="n">
-        <v>176510.6008550963</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>26316.02426827751</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="F4" t="n">
-        <v>61228.25944880788</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
-        <v>61228.25944880788</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
-        <v>61228.25944880788</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
-        <v>62177.00353903255</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="J4" t="n">
-        <v>62177.00353903255</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="L4" t="n">
-        <v>63198.41887740587</v>
+        <v>41171.0087700796</v>
       </c>
       <c r="M4" t="n">
-        <v>63198.41887740586</v>
+        <v>63198.41887740589</v>
       </c>
       <c r="N4" t="n">
-        <v>63198.41887740586</v>
+        <v>63198.41887740588</v>
       </c>
       <c r="O4" t="n">
-        <v>63198.41887740589</v>
+        <v>63198.41887740588</v>
       </c>
       <c r="P4" t="n">
         <v>63198.41887740589</v>
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64177.26375857546</v>
       </c>
       <c r="C5" t="n">
-        <v>48634.50014481491</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66077.49227817</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>68981.89989713847</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>68981.89989713847</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>68981.89989713847</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.6058824098</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>72535.6058824098</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
+        <v>80749.19025122613</v>
+      </c>
+      <c r="M5" t="n">
         <v>72383.20046482542</v>
       </c>
-      <c r="M5" t="n">
-        <v>72383.20046482541</v>
-      </c>
       <c r="N5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482542</v>
       </c>
       <c r="O5" t="n">
         <v>72383.20046482542</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482544</v>
+        <v>72383.20046482542</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304808.7489982183</v>
+        <v>-349617.0276322518</v>
       </c>
       <c r="C6" t="n">
-        <v>-315124.2793602739</v>
+        <v>-197886.4221815402</v>
       </c>
       <c r="D6" t="n">
-        <v>-261161.8238037171</v>
+        <v>-180516.1267423263</v>
       </c>
       <c r="E6" t="n">
-        <v>-241420.1380450599</v>
+        <v>-280820.4562278575</v>
       </c>
       <c r="F6" t="n">
-        <v>-115567.8027972738</v>
+        <v>-65081.09967121693</v>
       </c>
       <c r="G6" t="n">
-        <v>-87929.48076210305</v>
+        <v>-65081.09967121691</v>
       </c>
       <c r="H6" t="n">
-        <v>-87929.48076210305</v>
+        <v>-65081.09967121692</v>
       </c>
       <c r="I6" t="n">
-        <v>-106620.6060489333</v>
+        <v>-65081.09967121694</v>
       </c>
       <c r="J6" t="n">
-        <v>-98434.22369157909</v>
+        <v>-196547.1559943866</v>
       </c>
       <c r="K6" t="n">
-        <v>-155685.798382985</v>
+        <v>-78918.80884858131</v>
       </c>
       <c r="L6" t="n">
-        <v>-139920.3809017601</v>
+        <v>-106776.6800185803</v>
       </c>
       <c r="M6" t="n">
-        <v>-247750.838601445</v>
+        <v>-237672.1900595518</v>
       </c>
       <c r="N6" t="n">
+        <v>-91898.41924139406</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-91898.41924139408</v>
+      </c>
+      <c r="P6" t="n">
         <v>-91898.41924139409</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-91898.41924139409</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-91898.41924139415</v>
       </c>
     </row>
   </sheetData>
@@ -26695,31 +26695,31 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="M2" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="N2" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="O2" t="n">
         <v>35.67460137263965</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.46157497657</v>
       </c>
       <c r="C4" t="n">
-        <v>246.8240155397189</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1086.800859838322</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1086.800859838322</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1086.800859838322</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1086.800859838322</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.46157497657</v>
       </c>
       <c r="C4" t="n">
-        <v>218.7077054068992</v>
+        <v>53.76623813902415</v>
       </c>
       <c r="D4" t="n">
-        <v>214.5758902206153</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>625.4009540779882</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>58.44911159985736</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281976</v>
+        <v>502.46157497657</v>
       </c>
       <c r="K4" t="n">
-        <v>352.2416515415761</v>
+        <v>53.76623813902415</v>
       </c>
       <c r="L4" t="n">
-        <v>76.9773739969196</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>625.400954077988</v>
+        <v>584.9575882335668</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>502.46157497657</v>
       </c>
       <c r="K4" t="n">
-        <v>218.7077054068992</v>
+        <v>53.76623813902415</v>
       </c>
       <c r="L4" t="n">
-        <v>214.5758902206153</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>625.4009540779882</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>321.6499325648098</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,10 +27385,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27436,16 +27436,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>88.21453431485057</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>67.94452604893732</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>64.99692393175235</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>112.3448262124788</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -27546,13 +27546,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>139.8295540437226</v>
+        <v>8.005725892465392</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>18.4519170468789</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>140.3173868732368</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>249.2662938818791</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>77.64838640660332</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>152.6181964616705</v>
       </c>
       <c r="V5" t="n">
-        <v>107.0905051852941</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>145.6034206629377</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>117.9823646570391</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.72698086970183</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>30.55858847497984</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>32.07033717833247</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>223.1654625669721</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -27856,22 +27856,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>266.2242064481892</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>345.488360835362</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>63.52994056050457</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28059,13 +28059,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>57.26451418714291</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.5479025439635</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.5479025439635</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="M16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5479025439635</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.5479025439635</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="K19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="C35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="D35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="E35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="F35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137264027</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="T35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="U35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="V35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="W35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="C37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="D37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="E37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="F37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="G37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="H37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="I37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="J37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="K37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="L37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="M37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="N37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="O37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="P37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="R37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="S37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="T37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="U37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="V37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="W37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="X37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263961</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.6746013726397</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="J40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="L40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="M40" t="n">
-        <v>35.6746013726393</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="O40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="P40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="R40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="S40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>35.67460137263965</v>
       </c>
       <c r="U41" t="n">
-        <v>35.67460137263965</v>
+        <v>35.6746013726395</v>
       </c>
       <c r="V41" t="n">
         <v>35.67460137263965</v>
@@ -30885,7 +30885,7 @@
         <v>35.67460137263965</v>
       </c>
       <c r="M46" t="n">
-        <v>35.67460137263919</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="N46" t="n">
         <v>35.67460137263965</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.11631013281968</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502.46157497657</v>
       </c>
       <c r="L2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>38.91937601168154</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>502.46157497657</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>28.11631013281968</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,22 +34772,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>28.11631013281968</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>502.46157497657</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>490.8502547118385</v>
       </c>
       <c r="M3" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,10 +34796,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>26.98029760220071</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>28.11631013281968</v>
+        <v>138.7140269101866</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.11631013281968</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>246.8240155397189</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>118.1075554351822</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>246.8240155397189</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.8240155397189</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35012,28 +35012,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>246.8240155397189</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>246.8240155397189</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>146.4816785011293</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>246.8240155397189</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>246.8240155397189</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>236.8513280431646</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>246.8240155397189</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>246.8240155397189</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q9" t="n">
-        <v>442.7574853255731</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35346,10 +35346,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,19 +35416,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>611.7339456146717</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>53.33727245011722</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1086.800859838322</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35650,13 +35650,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>51.30884713125806</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35738,13 +35738,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>142.2641865125919</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115391</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>760.3575688701598</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35905,7 +35905,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>404.3842704899965</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127374</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,13 +36136,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>49.36063978403315</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>596.4494207761006</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>671.304317275531</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,13 +36364,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
-        <v>197.4099784473958</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36607,10 +36607,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P26" t="n">
-        <v>162.0517333088192</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>811.4841868477976</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -37069,7 +37069,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>595.2046518540839</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37078,19 +37078,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>622.5042498052213</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>396.8624089123078</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391035</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K34" t="n">
         <v>264.4903601664146</v>
@@ -37309,13 +37309,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>413.7116557542335</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>460.8086364284002</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.74665008391035</v>
+        <v>93.74665008391034</v>
       </c>
       <c r="K37" t="n">
         <v>264.4903601664146</v>
@@ -37549,13 +37549,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="N38" t="n">
-        <v>181.3159231454213</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.74665008391035</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K40" t="n">
         <v>264.4903601664146</v>
@@ -37707,7 +37707,7 @@
         <v>393.9466430841758</v>
       </c>
       <c r="M40" t="n">
-        <v>430.8117680092563</v>
+        <v>430.8117680092566</v>
       </c>
       <c r="N40" t="n">
         <v>416.9791578130798</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37786,10 +37786,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="N41" t="n">
-        <v>273.3367545112494</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37798,10 +37798,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38023,16 +38023,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="N44" t="n">
-        <v>896.7495384564612</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>396.8624089123077</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
@@ -38181,7 +38181,7 @@
         <v>393.9466430841758</v>
       </c>
       <c r="M46" t="n">
-        <v>430.8117680092562</v>
+        <v>430.8117680092566</v>
       </c>
       <c r="N46" t="n">
         <v>416.9791578130798</v>
